--- a/data/trans_dic/P55$familiarvive-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiarvive-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que, al menos, le ayudaun familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,18; 24,09</t>
+          <t>10,43; 23,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,57; 28,89</t>
+          <t>11,16; 26,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,42; 25,15</t>
+          <t>10,51; 24,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 14,36</t>
+          <t>4,58; 13,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,08; 39,6</t>
+          <t>25,58; 39,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,19; 36,25</t>
+          <t>23,65; 35,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,94; 36,1</t>
+          <t>21,91; 35,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,08; 24,99</t>
+          <t>17,36; 24,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,5; 32,36</t>
+          <t>22,03; 32,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,2; 30,86</t>
+          <t>21,1; 30,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,55; 30,15</t>
+          <t>19,85; 30,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,59; 20,67</t>
+          <t>14,83; 20,57</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,68</t>
+          <t>0,0; 33,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 44,9</t>
+          <t>5,2; 45,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 33,27</t>
+          <t>3,3; 35,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 24,38</t>
+          <t>6,84; 24,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 56,24</t>
+          <t>7,59; 58,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 51,07</t>
+          <t>9,35; 49,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 36,62</t>
+          <t>11,57; 39,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 20,76</t>
+          <t>8,33; 21,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,12; 35,96</t>
+          <t>4,44; 34,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 39,72</t>
+          <t>11,05; 38,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 31,7</t>
+          <t>11,16; 31,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,89; 19,86</t>
+          <t>9,53; 19,57</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,23</t>
+          <t>0,0; 69,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,45</t>
+          <t>0,0; 33,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,5; 49,0</t>
+          <t>13,85; 50,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,41</t>
+          <t>0,0; 36,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,5</t>
+          <t>0,0; 66,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,65; 33,62</t>
+          <t>10,47; 34,32</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 22,65</t>
+          <t>9,87; 22,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,08; 26,45</t>
+          <t>12,25; 26,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,5; 21,66</t>
+          <t>9,44; 21,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 15,19</t>
+          <t>6,78; 14,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,39; 36,49</t>
+          <t>24,77; 37,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,67; 35,52</t>
+          <t>23,5; 35,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,34; 33,12</t>
+          <t>20,64; 33,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,18; 23,52</t>
+          <t>16,96; 23,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,76; 30,37</t>
+          <t>20,76; 29,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,05; 30,11</t>
+          <t>21,14; 30,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,6; 27,77</t>
+          <t>18,0; 28,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 19,58</t>
+          <t>14,61; 19,57</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16933</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22606</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15707</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8622</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>66588</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>74286</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>58900</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>53497</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>83520</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>96892</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>74607</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>62119</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10742; 24594</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13857; 32899</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9820; 23329</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4474; 13595</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>52666; 81244</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>59324; 89158</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45697; 73339</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44735; 63708</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>68032; 99947</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>79113; 114675</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59957; 91246</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>52687; 73085</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2940</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5977</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3488</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5559</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11682</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7506</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9736</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14622</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13483</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4796</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1041; 9091</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>755; 8212</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2943; 10554</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1024; 7932</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1978; 10555</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6021; 20693</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4551; 11636</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1230; 9656</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4548; 15957</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8362; 23447</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9306; 19119</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1678</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4075</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5753</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6482</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1154</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1565</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5103</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1815</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3281</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2067</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1938; 7008</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7607</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4292</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3046; 9988</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19522</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26783</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18647</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16277</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>70076</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>80897</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>70581</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>65078</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>89598</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>107680</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>89229</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>81355</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12488; 28367</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17908; 38132</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11466; 25897</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10570; 23360</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>57205; 85990</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>64946; 96909</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>55186; 88615</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>55345; 75064</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>74219; 106044</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>89336; 127161</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>70004; 108901</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>70435; 94364</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>